--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1271250.481842829</v>
+        <v>1268871.557637826</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>287.7971664995856</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>113.688337382602</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933823</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>17.12870146207444</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>203.5133085650797</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>37.90969376287498</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>54.8448693531944</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>91.1232638410835</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>120.6088074159593</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045342</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.713266813875332e-12</v>
+        <v>170.8079800483179</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>167.5976902306949</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710044</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>137.2956700177307</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>176.3998725327401</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819382</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012945</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>111.6770159044997</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.48901097497532</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>31.91478052684273</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>23.40966367582439</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>199.9646153110746</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016491</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.043911798773021</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161864003</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337044</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986297</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>115.7228684476123</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856364</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826188883</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6889225686103</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>245.9454996361799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>132.6164309267675</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520485</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520485</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520485</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2718.633196935045</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.2149530574644</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574644</v>
+        <v>83.81383508074344</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>83.81383508074344</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>83.81383508074344</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>83.81383508074344</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596502</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450105</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>523.632123094425</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U4" t="n">
-        <v>523.632123094425</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V4" t="n">
-        <v>523.632123094425</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="W4" t="n">
-        <v>234.2149530574644</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="X4" t="n">
-        <v>234.2149530574644</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="Y4" t="n">
-        <v>234.2149530574644</v>
+        <v>252.7500180086504</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528559</v>
+        <v>954.607838657666</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>568.8195860594217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>561.8740853102182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>146.8016351552147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3270.20696367665</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3270.20696367665</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3016.676486950486</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2685.613599606915</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.844944336801</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.379186075721</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>828.8433049686049</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>828.8433049686049</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>539.7404380942485</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V7" t="n">
-        <v>539.7404380942485</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W7" t="n">
-        <v>539.7404380942485</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X7" t="n">
-        <v>311.7508871962312</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y7" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565136</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624724</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>985.113352017974</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197297</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301221</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136264</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866149</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.08073960507</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629258</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,10 +4896,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.765736413132</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629331</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936164</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
@@ -5218,31 +5218,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964856</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987797</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.555541309953</v>
+        <v>749.0240153319951</v>
       </c>
       <c r="V13" t="n">
-        <v>1185.871053104066</v>
+        <v>494.3395271261082</v>
       </c>
       <c r="W13" t="n">
-        <v>1016.580456911445</v>
+        <v>494.3395271261082</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.580456911445</v>
+        <v>266.3499762280909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.580456911445</v>
+        <v>266.3499762280909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192584</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>739.535451687217</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313769</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.3891055132869</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="C16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131322</v>
+        <v>296.765736413132</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629331</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936164</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
@@ -5455,31 +5455,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562354</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1190.655003217259</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>971.0535382401997</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>792.8718488131894</v>
       </c>
       <c r="V16" t="n">
-        <v>896.7958264482637</v>
+        <v>792.8718488131894</v>
       </c>
       <c r="W16" t="n">
-        <v>607.3786564113032</v>
+        <v>503.4546787762289</v>
       </c>
       <c r="X16" t="n">
-        <v>379.3891055132858</v>
+        <v>275.4651278782115</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.3891055132858</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5519,46 +5519,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.765736413132</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629331</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936164</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
@@ -5692,31 +5692,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562346</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562346</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1153.908372585287</v>
       </c>
       <c r="U19" t="n">
-        <v>1327.750474739751</v>
+        <v>864.8331459294852</v>
       </c>
       <c r="V19" t="n">
-        <v>1327.750474739751</v>
+        <v>832.0159631264798</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.33330470279</v>
+        <v>542.5987930895193</v>
       </c>
       <c r="X19" t="n">
-        <v>810.3437538047731</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.551174661243</v>
+        <v>93.81666304797183</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>462.1860973083147</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>293.2499143804078</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>293.2499143804078</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>293.2499143804078</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>330.0656153226283</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>720.4642094985684</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731422</v>
+        <v>1142.473912229603</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.84690539143</v>
+        <v>1559.883783889611</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100415</v>
+        <v>1916.37618610045</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673974</v>
+        <v>2209.051641674008</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400873</v>
+        <v>2328.249876400908</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400873</v>
+        <v>2328.249876400908</v>
       </c>
       <c r="S22" t="n">
-        <v>2328.249876400873</v>
+        <v>2145.395042055812</v>
       </c>
       <c r="T22" t="n">
-        <v>2108.648411423815</v>
+        <v>1925.793577078753</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.573184768012</v>
+        <v>1636.718350422951</v>
       </c>
       <c r="V22" t="n">
-        <v>1564.888696562125</v>
+        <v>1382.033862217064</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.471526525165</v>
+        <v>1092.616692180103</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>864.6271412820861</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>643.834562138556</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794375</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.407694650845</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6248,28 +6248,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396412</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359451</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614341</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876643</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597574</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474216</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474216</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317904</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,19 +6713,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991043</v>
+        <v>560.7825789706095</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2330.071297269541</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.8461362382094</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9099533103025</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>322.7933138979668</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979668</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000564</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000564</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000564</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2325.055080985705</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2105.453616008646</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.378389352844</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1561.693901146957</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.276731109996</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.287180211979</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.4946010684491</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7403,13 +7403,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.48758222036</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014473</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4041655335318</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>664.287526121196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3744325388029</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4844850408925</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9559,19 +9559,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042521594</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>149.8731022263403</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>9.02400013361941</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>118.9253081058961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>29.95115108089718</v>
+        <v>167.2468210986384</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>109.784601856504</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>174.5074584847445</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>219.6486323488527</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>113.5062674960885</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>202.2999917132128</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>25.74504007796256</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.5407415533218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067448</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823287</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>101.682581879676</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823286</v>
       </c>
       <c r="S37" t="n">
-        <v>60.33736343303426</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>40.23897475306421</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>32.9077073655013</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585131</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.509958513</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585132</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937886.7875718604</v>
+        <v>937886.7875718615</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942857.2448038027</v>
+        <v>942857.2448038026</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942857.2448038027</v>
+        <v>942857.2448038026</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038026</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038026</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942857.2448038028</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185699</v>
@@ -26323,22 +26323,22 @@
         <v>469940.613891398</v>
       </c>
       <c r="F2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.6138913978</v>
       </c>
       <c r="G2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.613891398</v>
       </c>
       <c r="H2" t="n">
-        <v>482595.5843324542</v>
+        <v>482595.5843324547</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26347,13 +26347,13 @@
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.708981578005478e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551212</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405272</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405265</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835448</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835448</v>
       </c>
       <c r="H4" t="n">
-        <v>13705.58560400933</v>
+        <v>13705.58560400983</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687976</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
@@ -26448,10 +26448,10 @@
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474468</v>
+        <v>-1037650.368474469</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>42644.23405145173</v>
+        <v>42549.71551800627</v>
       </c>
       <c r="F6" t="n">
-        <v>368056.6958588075</v>
+        <v>367962.1773253607</v>
       </c>
       <c r="G6" t="n">
-        <v>368056.6958588075</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="H6" t="n">
-        <v>367767.4689045377</v>
+        <v>367725.6794145951</v>
       </c>
       <c r="I6" t="n">
-        <v>367728.7899832167</v>
+        <v>367694.052057781</v>
       </c>
       <c r="J6" t="n">
-        <v>150197.5875859395</v>
+        <v>150162.849660504</v>
       </c>
       <c r="K6" t="n">
-        <v>367728.7899832168</v>
+        <v>367694.0520577811</v>
       </c>
       <c r="L6" t="n">
-        <v>367728.7899832168</v>
+        <v>367694.052057781</v>
       </c>
       <c r="M6" t="n">
-        <v>282673.7620477047</v>
+        <v>282639.0241222695</v>
       </c>
       <c r="N6" t="n">
-        <v>367728.7899832168</v>
+        <v>367694.052057781</v>
       </c>
       <c r="O6" t="n">
-        <v>367728.7899832171</v>
+        <v>367694.052057781</v>
       </c>
       <c r="P6" t="n">
-        <v>367728.7899832168</v>
+        <v>367694.0520577813</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,10 +26987,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022917</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>61.4438022178274</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>272.5496012734516</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>148.8971067969538</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.03564071108951</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.6980706244454</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>54.34289243498147</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>98.64576149035842</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259851</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>290.3129182374941</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>164.3404803801671</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.8817498053007</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.055771766308074e-11</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-7.729757574755542e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371039</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>302.3396059822683</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106288</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>181.933070881486</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356908</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,13 +34217,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150855</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194022997</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775769</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915993</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454455</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214681</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>163.7852262023941</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194022997</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775769</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915993</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454455</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214681</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>61.77582919629853</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194022997</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775769</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915993</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454455</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214681</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168154</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>360.0933355665033</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712705</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558166</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
